--- a/Docs/_Calcs/RMOptoMonCalcs-v2.2.xlsx
+++ b/Docs/_Calcs/RMOptoMonCalcs-v2.2.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="17235" windowHeight="8505" tabRatio="497"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="IL300" sheetId="2" r:id="rId1"/>
+    <sheet name="OLD-HCPL-7520" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet2!$M$23</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'IL300'!$M$23</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -26,7 +26,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet2!$P$23</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'IL300'!$P$23</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t>Expected output voltage</t>
   </si>
@@ -375,6 +375,135 @@
   </si>
   <si>
     <t>6.2V output @ 4.68v input</t>
+  </si>
+  <si>
+    <t>This doesn't require another dedicated power supply on Input so going with this approach for Optocoupler</t>
+  </si>
+  <si>
+    <t>http://e-rokodelnica.si/A004/A004_EN.html#Naslov_NaZacetek</t>
+  </si>
+  <si>
+    <t>https://www.edn.com/signal-powered-linear-optocoupler-provides-isolated-control-signal/</t>
+  </si>
+  <si>
+    <t>Max voltage drop at LED is 1.25V so rest is dropped across PNP</t>
+  </si>
+  <si>
+    <t>BJT drops should be &lt;&lt; 40V and Power Dissipation with temperature derating=500-(4*25)=400mW and 250mW (PNP)</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>LED_PWR (mW)</t>
+  </si>
+  <si>
+    <t>Q2 Pwr (mW)</t>
+  </si>
+  <si>
+    <t>Q1_Pwr (mW)</t>
+  </si>
+  <si>
+    <t>Q2 V_Drop</t>
+  </si>
+  <si>
+    <t>LED_PWR must be &lt; 150mW, LED_Current &lt; 50mA</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>V_Drop @ R2</t>
+  </si>
+  <si>
+    <t>K2 Min</t>
+  </si>
+  <si>
+    <t>K2 Max</t>
+  </si>
+  <si>
+    <t>Bin-H Middle</t>
+  </si>
+  <si>
+    <t>(0.851 to 0.955, 0.90 Middle, +/-6% Change - Band E)</t>
+  </si>
+  <si>
+    <t>Current value for Class H one (Can be .006 to .017)</t>
+  </si>
+  <si>
+    <t>Current value for Class H</t>
+  </si>
+  <si>
+    <t>FB Current(uA)</t>
+  </si>
+  <si>
+    <t>V_Drop @ R1</t>
+  </si>
+  <si>
+    <t>Resistors should have &lt; 1/8W power (220 Ohm@50mA LED current =&gt; 0.55W, 150k Ohm@394uA=&gt;23mW) and &lt;200V</t>
+  </si>
+  <si>
+    <t>R2_Pwr (W)</t>
+  </si>
+  <si>
+    <t>R1_Pwr (W)</t>
+  </si>
+  <si>
+    <t>IL300_Fb_Drop</t>
+  </si>
+  <si>
+    <t>Q2_E_Max(mA)</t>
+  </si>
+  <si>
+    <t>Q2_E_Max should be &gt; LED_Current, so can be limited to LED_Current by the BJTs</t>
+  </si>
+  <si>
+    <t>Q1 V_CB</t>
+  </si>
+  <si>
+    <t>~0</t>
+  </si>
+  <si>
+    <t>Actual Readings</t>
+  </si>
+  <si>
+    <t>FF Current @ K2 (uA)</t>
+  </si>
+  <si>
+    <t>Simple Receiver</t>
+  </si>
+  <si>
+    <t>Ohms (4700+6800)</t>
+  </si>
+  <si>
+    <t>SSR Switch</t>
+  </si>
+  <si>
+    <t>SSR Base Resistor</t>
+  </si>
+  <si>
+    <t>Base Current (mA)</t>
+  </si>
+  <si>
+    <t>NPN hFE</t>
+  </si>
+  <si>
+    <t>Max CE_Current (mA)</t>
+  </si>
+  <si>
+    <t>NPN V_BE</t>
+  </si>
+  <si>
+    <t>Max CE_Current should be &gt; LED_Current</t>
+  </si>
+  <si>
+    <t>Base Power (mW)</t>
+  </si>
+  <si>
+    <t>Base Resistor should handle Base Power</t>
+  </si>
+  <si>
+    <t>(resistor has been updated when this NPN is switched to a higher-power one - KSE13003H2ASTU - instead of testing bjt with hfe 200!)</t>
   </si>
   <si>
     <r>
@@ -396,137 +525,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>THIS SHEET WAS FOR OPTOCOUPLER READING WITH ANOTHER 5V SRC ON PV RECEIVING SIDE LIKE MOST OPTOCOUPLER CIRCUITS ARE BUT NOT DOING THIS AS DOESN'T TRULY ISOLATE PV SUPPLY FROM MODULE</t>
+      <t>THIS SHEET WAS FOR OPTOCOUPLER READING USING HCPL-7520 WITH ANOTHER 5V SRC ON PV RECEIVING SIDE LIKE MOST OPTOCOUPLER CIRCUITS ARE BUT NOT DOING THIS AS DOESN'T TRULY ISOLATE PV SUPPLY FROM MODULE</t>
     </r>
-  </si>
-  <si>
-    <t>This doesn't require another dedicated power supply on Input so going with this approach for Optocoupler</t>
-  </si>
-  <si>
-    <t>http://e-rokodelnica.si/A004/A004_EN.html#Naslov_NaZacetek</t>
-  </si>
-  <si>
-    <t>https://www.edn.com/signal-powered-linear-optocoupler-provides-isolated-control-signal/</t>
-  </si>
-  <si>
-    <t>Max voltage drop at LED is 1.25V so rest is dropped across PNP</t>
-  </si>
-  <si>
-    <t>BJT drops should be &lt;&lt; 40V and Power Dissipation with temperature derating=500-(4*25)=400mW and 250mW (PNP)</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>LED_PWR (mW)</t>
-  </si>
-  <si>
-    <t>Q2 Pwr (mW)</t>
-  </si>
-  <si>
-    <t>Q1_Pwr (mW)</t>
-  </si>
-  <si>
-    <t>Q2 V_Drop</t>
-  </si>
-  <si>
-    <t>LED_PWR must be &lt; 150mW, LED_Current &lt; 50mA</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>V_Drop @ R2</t>
-  </si>
-  <si>
-    <t>K2 Min</t>
-  </si>
-  <si>
-    <t>K2 Max</t>
-  </si>
-  <si>
-    <t>Bin-H Middle</t>
-  </si>
-  <si>
-    <t>(0.851 to 0.955, 0.90 Middle, +/-6% Change - Band E)</t>
-  </si>
-  <si>
-    <t>Current value for Class H one (Can be .006 to .017)</t>
-  </si>
-  <si>
-    <t>Current value for Class H</t>
-  </si>
-  <si>
-    <t>FB Current(uA)</t>
-  </si>
-  <si>
-    <t>V_Drop @ R1</t>
-  </si>
-  <si>
-    <t>Resistors should have &lt; 1/8W power (220 Ohm@50mA LED current =&gt; 0.55W, 150k Ohm@394uA=&gt;23mW) and &lt;200V</t>
-  </si>
-  <si>
-    <t>R2_Pwr (W)</t>
-  </si>
-  <si>
-    <t>R1_Pwr (W)</t>
-  </si>
-  <si>
-    <t>IL300_Fb_Drop</t>
-  </si>
-  <si>
-    <t>Q2_E_Max(mA)</t>
-  </si>
-  <si>
-    <t>Q2_E_Max should be &gt; LED_Current, so can be limited to LED_Current by the BJTs</t>
-  </si>
-  <si>
-    <t>Q1 V_CB</t>
-  </si>
-  <si>
-    <t>~0</t>
-  </si>
-  <si>
-    <t>Actual Readings</t>
-  </si>
-  <si>
-    <t>FF Current @ K2 (uA)</t>
-  </si>
-  <si>
-    <t>Simple Receiver</t>
-  </si>
-  <si>
-    <t>Ohms (4700+6800)</t>
-  </si>
-  <si>
-    <t>SSR Switch to turn optocoupler on/offo</t>
-  </si>
-  <si>
-    <t>NPN-Base - SSR Pin 5 Resistor</t>
-  </si>
-  <si>
-    <t>NPN Collector cut-off current is 5 uA</t>
-  </si>
-  <si>
-    <t>NPN-Base Current</t>
-  </si>
-  <si>
-    <t>PV Voltage</t>
-  </si>
-  <si>
-    <t>(max)</t>
-  </si>
-  <si>
-    <t>Power Dissipation (W)</t>
-  </si>
-  <si>
-    <t>NPN Min Base-Emitter V should be ~10V for measuring</t>
-  </si>
-  <si>
-    <t>Optocoupler Current Draw (mA)</t>
-  </si>
-  <si>
-    <t>Base Power Waste</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +671,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -833,6 +845,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,8 +901,6 @@
     <xf numFmtId="2" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1410,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL88"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,27 +1457,28 @@
     <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.5703125" customWidth="1"/>
-    <col min="29" max="29" width="18" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.42578125" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
+    <col min="29" max="30" width="18" customWidth="1"/>
+    <col min="31" max="32" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.42578125" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" customWidth="1"/>
+    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11" t="s">
         <v>41</v>
@@ -1485,25 +1504,34 @@
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AA1" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="12">
+      <c r="AB1" s="54">
         <v>5.4</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AC1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
+      <c r="AD1" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" s="57">
+        <v>30000</v>
+      </c>
+      <c r="AF1" s="57" t="s">
+        <v>25</v>
+      </c>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
-      <c r="AK1" s="14"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="14"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1524,7 +1552,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -1536,25 +1564,34 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AA2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AB2" s="55">
         <v>11500</v>
       </c>
-      <c r="AE2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
+      <c r="AC2" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD2" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE2" s="57">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="57" t="s">
+        <v>148</v>
+      </c>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="16"/>
-      <c r="AK2" s="18"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="18"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -1590,16 +1627,24 @@
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
+      <c r="AD3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="AH3" s="16"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="18"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="18"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K4" s="15" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1655,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
@@ -1632,9 +1677,12 @@
       <c r="AH4" s="16"/>
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16"/>
-      <c r="AK4" s="18"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="18"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K5" s="15" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1693,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -1660,16 +1708,21 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
+      <c r="AD5" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
-      <c r="AK5" s="18"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="18"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1677,12 +1730,12 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
@@ -1697,23 +1750,28 @@
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="AD6" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
-      <c r="AK6" s="18"/>
-    </row>
-    <row r="7" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="18"/>
+    </row>
+    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K7" s="32"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
@@ -1735,9 +1793,12 @@
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
-      <c r="AK7" s="18"/>
-    </row>
-    <row r="8" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="18"/>
+    </row>
+    <row r="8" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K8" s="15" t="s">
         <v>26</v>
       </c>
@@ -1745,12 +1806,12 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="Q8" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
@@ -1770,9 +1831,12 @@
       <c r="AH8" s="16"/>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="18"/>
-    </row>
-    <row r="9" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="18"/>
+    </row>
+    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1782,7 +1846,7 @@
       </c>
       <c r="N9" s="16"/>
       <c r="Q9" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R9" s="16">
         <f>L6/0.955</f>
@@ -1806,9 +1870,12 @@
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="18"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="18"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K10" s="15" t="s">
         <v>24</v>
       </c>
@@ -1818,7 +1885,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="Q10" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R10" s="16">
         <f>L7/0.851</f>
@@ -1842,11 +1909,14 @@
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="18"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="18"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K11" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11" s="27">
         <v>1500</v>
@@ -1854,7 +1924,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="Q11" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R11" s="16">
         <v>1.24</v>
@@ -1877,11 +1947,14 @@
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="18"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="18"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K12" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L12" s="27">
         <v>0.55000000000000004</v>
@@ -1910,20 +1983,23 @@
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="9"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="9"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -1942,46 +2018,54 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="18"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="K14" s="57" t="s">
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="18"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
+      <c r="V14" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
       <c r="AB14" s="30"/>
       <c r="AC14" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD14" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD14" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="55"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="61"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K15" s="20" t="s">
         <v>36</v>
       </c>
@@ -1992,10 +2076,10 @@
         <v>38</v>
       </c>
       <c r="N15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>39</v>
@@ -2004,7 +2088,7 @@
         <v>37</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S15" s="21" t="s">
         <v>53</v>
@@ -2013,58 +2097,67 @@
         <v>47</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V15" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W15" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="X15" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y15" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="Z15" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA15" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB15" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AD15" s="22" t="s">
+      <c r="AD15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE15" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF15" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF15" s="22" t="s">
+      <c r="AH15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AG15" s="21" t="s">
+      <c r="AJ15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AH15" s="21" t="s">
+      <c r="AK15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AI15" s="21" t="s">
+      <c r="AL15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AJ15" s="21" t="s">
+      <c r="AM15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AK15" s="23" t="s">
+      <c r="AN15" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="K16" s="32">
         <v>0.5</v>
       </c>
@@ -2136,40 +2229,52 @@
         <v>0</v>
       </c>
       <c r="AC16" s="27">
-        <f t="shared" ref="AC16:AC27" si="8">$AD$1-(AE16/1000000 * $AD$2)</f>
+        <f t="shared" ref="AC16:AC27" si="8">$AB$1-(AH16/1000000 * $AB$2)</f>
         <v>5.4</v>
       </c>
-      <c r="AD16" s="35">
-        <f t="shared" ref="AD16:AD27" si="9">((K16-$L$1)/150000)*$L$9*1000000</f>
+      <c r="AD16" s="27">
+        <f>1000*(K16-$AE$3)/$AE$1</f>
+        <v>-6.6666666666666645E-3</v>
+      </c>
+      <c r="AE16" s="27">
+        <f>AD16*$AE$2</f>
+        <v>-9.3333333333333296E-2</v>
+      </c>
+      <c r="AF16" s="27">
+        <f>AD16*K16</f>
+        <v>-3.3333333333333322E-3</v>
+      </c>
+      <c r="AG16" s="35">
+        <f t="shared" ref="AG16:AG27" si="9">((K16-$L$1)/150000)*$L$9*1000000</f>
         <v>-0.41880341880341915</v>
       </c>
-      <c r="AE16" s="27">
-        <f t="shared" ref="AE16:AE27" si="10">$L$8*Q16*1000</f>
+      <c r="AH16" s="27">
+        <f t="shared" ref="AH16:AH27" si="10">$L$8*Q16*1000</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="35">
-        <f t="shared" ref="AF16:AF27" si="11">$L$9*K16</f>
+      <c r="AI16" s="35">
+        <f t="shared" ref="AI16:AI27" si="11">$L$9*K16</f>
         <v>0.62820512820512819</v>
       </c>
-      <c r="AG16" s="27">
-        <f>ABS(10.11-((AE16+AK16)/1000000)*150000)</f>
+      <c r="AJ16" s="27">
+        <f>ABS(10.11-((AH16+AN16)/1000000)*150000)</f>
         <v>9.5832336182336171</v>
       </c>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27">
-        <f>(AE16+AK16)*150000/1000000</f>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27">
+        <f>(AH16+AN16)*150000/1000000</f>
         <v>0.5267663817663818</v>
       </c>
-      <c r="AJ16" s="27">
-        <f>10.11-AI16</f>
+      <c r="AM16" s="27">
+        <f>10.11-AL16</f>
         <v>9.5832336182336171</v>
       </c>
-      <c r="AK16" s="36">
-        <f t="shared" ref="AK16:AK27" si="12">1000000*(10.11-AF16)/18000/$L$5</f>
+      <c r="AN16" s="36">
+        <f t="shared" ref="AN16:AN27" si="12">1000000*(10.11-AI16)/18000/$L$5</f>
         <v>3.511775878442545</v>
       </c>
     </row>
-    <row r="17" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:40" x14ac:dyDescent="0.25">
       <c r="K17" s="32">
         <v>1</v>
       </c>
@@ -2209,7 +2314,7 @@
         <v>4.0742405121348675</v>
       </c>
       <c r="U17" s="27">
-        <f t="shared" ref="U17:U27" si="15">1000*(K17-$L$3-$L$2)/$L$11</f>
+        <f t="shared" ref="U17:U26" si="15">1000*(K17-$L$3-$L$2)/$L$11</f>
         <v>-0.62666666666666671</v>
       </c>
       <c r="V17" s="27">
@@ -2244,31 +2349,43 @@
         <f t="shared" si="8"/>
         <v>5.3311249641423606</v>
       </c>
-      <c r="AD17" s="35">
+      <c r="AD17" s="27">
+        <f t="shared" ref="AD17:AD27" si="20">1000*(K17-$AE$3)/$AE$1</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="AE17" s="27">
+        <f t="shared" ref="AE17:AE27" si="21">AD17*$AE$2</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF17" s="27">
+        <f t="shared" ref="AF17:AF27" si="22">AD17*K17</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="AG17" s="35">
         <f t="shared" si="9"/>
         <v>3.7692307692307687</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AH17" s="27">
         <f t="shared" si="10"/>
         <v>5.9891335528382559</v>
       </c>
-      <c r="AF17" s="35">
+      <c r="AI17" s="35">
         <f t="shared" si="11"/>
         <v>1.2564102564102564</v>
       </c>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27">
-        <f t="shared" ref="AJ17:AJ19" si="20">10.11-AI17</f>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27">
+        <f t="shared" ref="AM17:AM19" si="23">10.11-AL17</f>
         <v>10.11</v>
       </c>
-      <c r="AK17" s="36">
+      <c r="AN17" s="36">
         <f t="shared" si="12"/>
         <v>3.279107312440646</v>
       </c>
     </row>
-    <row r="18" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:40" x14ac:dyDescent="0.25">
       <c r="K18" s="32">
         <v>2</v>
       </c>
@@ -2312,7 +2429,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="V18" s="27">
-        <f t="shared" ref="V18:V27" si="21">K18-$L$2-R18</f>
+        <f t="shared" ref="V18:V27" si="24">K18-$L$2-R18</f>
         <v>-9.1391247238348572E-2</v>
       </c>
       <c r="W18" s="27">
@@ -2343,31 +2460,43 @@
         <f t="shared" si="8"/>
         <v>5.3367834709574922</v>
       </c>
-      <c r="AD18" s="35">
+      <c r="AD18" s="27">
+        <f t="shared" si="20"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="AE18" s="27">
+        <f t="shared" si="21"/>
+        <v>0.60666666666666669</v>
+      </c>
+      <c r="AF18" s="27">
+        <f t="shared" si="22"/>
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="AG18" s="35">
         <f t="shared" si="9"/>
         <v>12.145299145299145</v>
       </c>
-      <c r="AE18" s="27">
+      <c r="AH18" s="27">
         <f t="shared" si="10"/>
         <v>5.4970894819572091</v>
       </c>
-      <c r="AF18" s="35">
+      <c r="AI18" s="35">
         <f t="shared" si="11"/>
         <v>2.5128205128205128</v>
       </c>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27">
-        <f t="shared" si="20"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27">
+        <f t="shared" si="23"/>
         <v>10.11</v>
       </c>
-      <c r="AK18" s="36">
+      <c r="AN18" s="36">
         <f t="shared" si="12"/>
         <v>2.8137701804368471</v>
       </c>
     </row>
-    <row r="19" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:40" x14ac:dyDescent="0.25">
       <c r="K19" s="32">
         <v>4.68</v>
       </c>
@@ -2391,7 +2520,7 @@
         <v>2.0863687092642635E-5</v>
       </c>
       <c r="Q19" s="27">
-        <f t="shared" ref="Q19" si="22">$L$4*$L$5*M19/1000</f>
+        <f t="shared" ref="Q19" si="25">$L$4*$L$5*M19/1000</f>
         <v>1.5976762533784366</v>
       </c>
       <c r="R19" s="27">
@@ -2411,7 +2540,7 @@
         <v>1.8266666666666664</v>
       </c>
       <c r="V19" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.0334856199323448</v>
       </c>
       <c r="W19" s="27">
@@ -2442,31 +2571,43 @@
         <f t="shared" si="8"/>
         <v>5.2199418862442508</v>
       </c>
-      <c r="AD19" s="35">
+      <c r="AD19" s="27">
+        <f t="shared" si="20"/>
+        <v>0.13266666666666665</v>
+      </c>
+      <c r="AE19" s="27">
+        <f>AD19*$AE$2</f>
+        <v>1.8573333333333331</v>
+      </c>
+      <c r="AF19" s="27">
+        <f t="shared" si="22"/>
+        <v>0.62087999999999988</v>
+      </c>
+      <c r="AG19" s="35">
         <f t="shared" si="9"/>
         <v>34.593162393162395</v>
       </c>
-      <c r="AE19" s="27">
+      <c r="AH19" s="27">
         <f t="shared" si="10"/>
         <v>15.657227283108679</v>
       </c>
-      <c r="AF19" s="35">
+      <c r="AI19" s="35">
         <f t="shared" si="11"/>
         <v>5.88</v>
       </c>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27">
-        <f t="shared" si="20"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27">
+        <f t="shared" si="23"/>
         <v>10.11</v>
       </c>
-      <c r="AK19" s="36">
+      <c r="AN19" s="36">
         <f t="shared" si="12"/>
         <v>1.5666666666666667</v>
       </c>
     </row>
-    <row r="20" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:40" x14ac:dyDescent="0.25">
       <c r="K20" s="32">
         <v>6.6</v>
       </c>
@@ -2490,7 +2631,7 @@
         <v>7.2349277964178782E-6</v>
       </c>
       <c r="Q20" s="27">
-        <f t="shared" ref="Q20:Q27" si="23">$L$4*$L$5*M20/1000</f>
+        <f t="shared" ref="Q20:Q27" si="26">$L$4*$L$5*M20/1000</f>
         <v>2.3404246083070896</v>
       </c>
       <c r="R20" s="27">
@@ -2510,7 +2651,7 @@
         <v>3.1066666666666665</v>
       </c>
       <c r="V20" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.8393630875393647</v>
       </c>
       <c r="W20" s="27">
@@ -2541,31 +2682,43 @@
         <f t="shared" si="8"/>
         <v>5.1362341466437913</v>
       </c>
-      <c r="AD20" s="35">
+      <c r="AD20" s="27">
+        <f t="shared" si="20"/>
+        <v>0.19666666666666663</v>
+      </c>
+      <c r="AE20" s="27">
+        <f t="shared" si="21"/>
+        <v>2.753333333333333</v>
+      </c>
+      <c r="AF20" s="27">
+        <f t="shared" si="22"/>
+        <v>1.2979999999999996</v>
+      </c>
+      <c r="AG20" s="35">
         <f t="shared" si="9"/>
         <v>50.675213675213669</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AH20" s="27">
         <f t="shared" si="10"/>
         <v>22.936161161409476</v>
       </c>
-      <c r="AF20" s="35">
+      <c r="AI20" s="35">
         <f t="shared" si="11"/>
         <v>8.2923076923076913</v>
       </c>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27">
-        <f t="shared" ref="AJ20:AJ27" si="24">10.11-AI20</f>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27">
+        <f t="shared" ref="AM20:AM27" si="27">10.11-AL20</f>
         <v>10.11</v>
       </c>
-      <c r="AK20" s="36">
+      <c r="AN20" s="36">
         <f t="shared" si="12"/>
         <v>0.67321937321937342</v>
       </c>
     </row>
-    <row r="21" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:40" x14ac:dyDescent="0.25">
       <c r="K21" s="32">
         <v>8.5</v>
       </c>
@@ -2589,7 +2742,7 @@
         <v>2.3566917661810294E-7</v>
       </c>
       <c r="Q21" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3.075435173009351</v>
       </c>
       <c r="R21" s="27">
@@ -2609,7 +2762,7 @@
         <v>4.373333333333334</v>
       </c>
       <c r="V21" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6368472404859737</v>
       </c>
       <c r="W21" s="27">
@@ -2640,31 +2793,43 @@
         <f t="shared" si="8"/>
         <v>5.0533984560018466</v>
       </c>
-      <c r="AD21" s="35">
+      <c r="AD21" s="27">
+        <f t="shared" si="20"/>
+        <v>0.26</v>
+      </c>
+      <c r="AE21" s="27">
+        <f t="shared" si="21"/>
+        <v>3.64</v>
+      </c>
+      <c r="AF21" s="27">
+        <f t="shared" si="22"/>
+        <v>2.21</v>
+      </c>
+      <c r="AG21" s="35">
         <f t="shared" si="9"/>
         <v>66.589743589743591</v>
       </c>
-      <c r="AE21" s="27">
+      <c r="AH21" s="27">
         <f t="shared" si="10"/>
         <v>30.13926469549164</v>
       </c>
-      <c r="AF21" s="35">
+      <c r="AI21" s="35">
         <f t="shared" si="11"/>
         <v>10.679487179487179</v>
       </c>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27">
-        <f t="shared" si="24"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27">
+        <f t="shared" si="27"/>
         <v>10.11</v>
       </c>
-      <c r="AK21" s="36">
+      <c r="AN21" s="36">
         <f t="shared" si="12"/>
         <v>-0.21092117758784421</v>
       </c>
     </row>
-    <row r="22" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:40" x14ac:dyDescent="0.25">
       <c r="K22" s="32">
         <v>10</v>
       </c>
@@ -2680,7 +2845,7 @@
         <v>28.514495516990209</v>
       </c>
       <c r="O22" s="27">
-        <f t="shared" ref="O22:O27" si="25">(L22*$L$10/1000000)</f>
+        <f t="shared" ref="O22:O27" si="28">(L22*$L$10/1000000)</f>
         <v>9.4499999999999975</v>
       </c>
       <c r="P22" s="33">
@@ -2688,7 +2853,7 @@
         <v>1.1300924747104091E-5</v>
       </c>
       <c r="Q22" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3.6557045534602834</v>
       </c>
       <c r="R22" s="27">
@@ -2708,7 +2873,7 @@
         <v>5.373333333333334</v>
       </c>
       <c r="V22" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3.2664431698095751</v>
       </c>
       <c r="W22" s="27">
@@ -2724,7 +2889,7 @@
         <v>7.985138810017807E-2</v>
       </c>
       <c r="Z22" s="27">
-        <f t="shared" ref="Z22:Z27" si="26">S22-$L$1</f>
+        <f t="shared" ref="Z22:Z27" si="29">S22-$L$1</f>
         <v>3.2764431698095757</v>
       </c>
       <c r="AA22" s="34">
@@ -2739,31 +2904,43 @@
         <f t="shared" si="8"/>
         <v>4.988002096825026</v>
       </c>
-      <c r="AD22" s="35">
+      <c r="AD22" s="27">
+        <f t="shared" si="20"/>
+        <v>0.31</v>
+      </c>
+      <c r="AE22" s="27">
+        <f t="shared" si="21"/>
+        <v>4.34</v>
+      </c>
+      <c r="AF22" s="27">
+        <f t="shared" si="22"/>
+        <v>3.1</v>
+      </c>
+      <c r="AG22" s="35">
         <f t="shared" si="9"/>
         <v>79.153846153846146</v>
       </c>
-      <c r="AE22" s="27">
+      <c r="AH22" s="27">
         <f t="shared" si="10"/>
         <v>35.825904623910773</v>
       </c>
-      <c r="AF22" s="35">
+      <c r="AI22" s="35">
         <f t="shared" si="11"/>
         <v>12.564102564102564</v>
       </c>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27">
-        <f t="shared" si="24"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27">
+        <f t="shared" si="27"/>
         <v>10.11</v>
       </c>
-      <c r="AK22" s="36">
+      <c r="AN22" s="36">
         <f t="shared" si="12"/>
         <v>-0.90892687559354235</v>
       </c>
     </row>
-    <row r="23" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J23" s="28"/>
       <c r="K23" s="32">
         <v>17</v>
@@ -2780,7 +2957,7 @@
         <v>49.636363540874541</v>
       </c>
       <c r="O23" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>16.45</v>
       </c>
       <c r="P23" s="33">
@@ -2788,7 +2965,7 @@
         <v>9.5897171092929057E-8</v>
       </c>
       <c r="Q23" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.3636363513941721</v>
       </c>
       <c r="R23" s="27">
@@ -2808,7 +2985,7 @@
         <v>10.039999999999999</v>
       </c>
       <c r="V23" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6.204545472908741</v>
       </c>
       <c r="W23" s="27">
@@ -2824,7 +3001,7 @@
         <v>0.26364738319196096</v>
       </c>
       <c r="Z23" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6.2145454729087399</v>
       </c>
       <c r="AA23" s="34">
@@ -2839,31 +3016,43 @@
         <f t="shared" si="8"/>
         <v>4.6828181831978775</v>
       </c>
-      <c r="AD23" s="35">
+      <c r="AD23" s="27">
+        <f t="shared" si="20"/>
+        <v>0.54333333333333333</v>
+      </c>
+      <c r="AE23" s="27">
+        <f t="shared" si="21"/>
+        <v>7.6066666666666665</v>
+      </c>
+      <c r="AF23" s="27">
+        <f t="shared" si="22"/>
+        <v>9.2366666666666664</v>
+      </c>
+      <c r="AG23" s="35">
         <f t="shared" si="9"/>
         <v>137.78632478632477</v>
       </c>
-      <c r="AE23" s="27">
+      <c r="AH23" s="27">
         <f t="shared" si="10"/>
         <v>62.363636243662881</v>
       </c>
-      <c r="AF23" s="35">
+      <c r="AI23" s="35">
         <f t="shared" si="11"/>
         <v>21.358974358974358</v>
       </c>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27">
-        <f t="shared" si="24"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27">
+        <f t="shared" si="27"/>
         <v>10.11</v>
       </c>
-      <c r="AK23" s="36">
+      <c r="AN23" s="36">
         <f t="shared" si="12"/>
         <v>-4.1662867996201323</v>
       </c>
     </row>
-    <row r="24" spans="10:37" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:40" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J24" s="43"/>
       <c r="K24" s="32">
         <v>40</v>
@@ -2876,11 +3065,11 @@
         <v>0.50870386114286514</v>
       </c>
       <c r="N24" s="27">
-        <f t="shared" ref="N24:N25" si="27">$L$6*Q24*1000</f>
+        <f t="shared" ref="N24:N25" si="30">$L$6*Q24*1000</f>
         <v>119.03670350743045</v>
       </c>
       <c r="O24" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>39.450000000000003</v>
       </c>
       <c r="P24" s="33">
@@ -2888,7 +3077,7 @@
         <v>4.7176881238897295E-5</v>
       </c>
       <c r="Q24" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>15.261115834285954</v>
       </c>
       <c r="R24" s="27">
@@ -2908,27 +3097,27 @@
         <v>25.373333333333335</v>
       </c>
       <c r="V24" s="27">
-        <f t="shared" ref="V24:V25" si="28">K24-$L$2-R24</f>
+        <f t="shared" ref="V24:V25" si="31">K24-$L$2-R24</f>
         <v>15.858326248571068</v>
       </c>
       <c r="W24" s="27">
-        <f t="shared" ref="W24:W25" si="29">V24*Q24</f>
+        <f t="shared" ref="W24:W25" si="32">V24*Q24</f>
         <v>242.01575381734051</v>
       </c>
       <c r="X24" s="27">
-        <f t="shared" ref="X24:X25" si="30">1.25*Q24</f>
+        <f t="shared" ref="X24:X25" si="33">1.25*Q24</f>
         <v>19.076394792857442</v>
       </c>
       <c r="Y24" s="27">
-        <f t="shared" ref="Y24:Y25" si="31">T24*(Z24)/1000</f>
+        <f t="shared" ref="Y24:Y25" si="34">T24*(Z24)/1000</f>
         <v>1.614455766504556</v>
       </c>
       <c r="Z24" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>15.868326248571069</v>
       </c>
       <c r="AA24" s="34">
-        <f t="shared" ref="AA24:AA25" si="32">(L24/1000000)^2*$L$10</f>
+        <f t="shared" ref="AA24:AA25" si="35">(L24/1000000)^2*$L$10</f>
         <v>4.7160681818181815E-3</v>
       </c>
       <c r="AB24" s="27">
@@ -2939,31 +3128,43 @@
         <f t="shared" si="8"/>
         <v>3.6800722454759733</v>
       </c>
-      <c r="AD24" s="35">
+      <c r="AD24" s="27">
+        <f t="shared" si="20"/>
+        <v>1.31</v>
+      </c>
+      <c r="AE24" s="27">
+        <f t="shared" si="21"/>
+        <v>18.34</v>
+      </c>
+      <c r="AF24" s="27">
+        <f t="shared" si="22"/>
+        <v>52.400000000000006</v>
+      </c>
+      <c r="AG24" s="35">
         <f t="shared" si="9"/>
         <v>330.4358974358974</v>
       </c>
-      <c r="AE24" s="27">
+      <c r="AH24" s="27">
         <f t="shared" si="10"/>
         <v>149.55893517600236</v>
       </c>
-      <c r="AF24" s="35">
+      <c r="AI24" s="35">
         <f t="shared" si="11"/>
         <v>50.256410256410255</v>
       </c>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27">
-        <f t="shared" si="24"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27">
+        <f t="shared" si="27"/>
         <v>10.11</v>
       </c>
-      <c r="AK24" s="36">
+      <c r="AN24" s="36">
         <f t="shared" si="12"/>
         <v>-14.869040835707501</v>
       </c>
     </row>
-    <row r="25" spans="10:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K25" s="37">
         <v>60</v>
       </c>
@@ -2975,11 +3176,11 @@
         <v>0.76660218983168738</v>
       </c>
       <c r="N25" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>179.38491242061485</v>
       </c>
       <c r="O25" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>59.45000000000001</v>
       </c>
       <c r="P25" s="33">
@@ -2987,7 +3188,7 @@
         <v>5.4106862990010995E-7</v>
       </c>
       <c r="Q25" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>22.998065694950622</v>
       </c>
       <c r="R25" s="38">
@@ -3003,31 +3204,31 @@
         <v>153.32043796633747</v>
       </c>
       <c r="U25" s="38">
-        <f t="shared" ref="U25" si="33">1000*(K25-$L$3-$L$2)/$L$11</f>
+        <f t="shared" ref="U25" si="36">1000*(K25-$L$3-$L$2)/$L$11</f>
         <v>38.706666666666663</v>
       </c>
       <c r="V25" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>24.252901457574069</v>
       </c>
       <c r="W25" s="38">
+        <f t="shared" si="32"/>
+        <v>557.76982101445208</v>
+      </c>
+      <c r="X25" s="38">
+        <f t="shared" si="33"/>
+        <v>28.747582118688278</v>
+      </c>
+      <c r="Y25" s="38">
+        <f t="shared" si="34"/>
+        <v>3.7199986778093441</v>
+      </c>
+      <c r="Z25" s="27">
         <f t="shared" si="29"/>
-        <v>557.76982101445208</v>
-      </c>
-      <c r="X25" s="38">
-        <f t="shared" si="30"/>
-        <v>28.747582118688278</v>
-      </c>
-      <c r="Y25" s="38">
-        <f t="shared" si="31"/>
-        <v>3.7199986778093441</v>
-      </c>
-      <c r="Z25" s="27">
-        <f t="shared" si="26"/>
         <v>24.26290145757407</v>
       </c>
       <c r="AA25" s="39">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.0710007575757578E-2</v>
       </c>
       <c r="AB25" s="38">
@@ -3038,31 +3239,43 @@
         <f t="shared" si="8"/>
         <v>2.8081179961790657</v>
       </c>
-      <c r="AD25" s="38">
+      <c r="AD25" s="27">
+        <f t="shared" si="20"/>
+        <v>1.9766666666666666</v>
+      </c>
+      <c r="AE25" s="27">
+        <f t="shared" si="21"/>
+        <v>27.673333333333332</v>
+      </c>
+      <c r="AF25" s="27">
+        <f t="shared" si="22"/>
+        <v>118.6</v>
+      </c>
+      <c r="AG25" s="38">
         <f t="shared" si="9"/>
         <v>497.95726495726495</v>
       </c>
-      <c r="AE25" s="38">
+      <c r="AH25" s="38">
         <f t="shared" si="10"/>
         <v>225.38104381051608</v>
       </c>
-      <c r="AF25" s="38">
+      <c r="AI25" s="38">
         <f t="shared" si="11"/>
         <v>75.384615384615387</v>
       </c>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38">
-        <f t="shared" si="24"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38">
+        <f t="shared" si="27"/>
         <v>10.11</v>
       </c>
-      <c r="AK25" s="40">
+      <c r="AN25" s="40">
         <f t="shared" si="12"/>
         <v>-24.175783475783476</v>
       </c>
     </row>
-    <row r="26" spans="10:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K26" s="37">
         <v>90</v>
       </c>
@@ -3078,7 +3291,7 @@
         <v>269.90715595157434</v>
       </c>
       <c r="O26" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>89.45</v>
       </c>
       <c r="P26" s="33">
@@ -3086,7 +3299,7 @@
         <v>7.2462330535927322E-7</v>
       </c>
       <c r="Q26" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>34.60348153225312</v>
       </c>
       <c r="R26" s="38">
@@ -3106,7 +3319,7 @@
         <v>58.706666666666663</v>
       </c>
       <c r="V26" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>36.844777701620316</v>
       </c>
       <c r="W26" s="38">
@@ -3122,7 +3335,7 @@
         <v>8.5020241304887527</v>
       </c>
       <c r="Z26" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>36.854777701620321</v>
       </c>
       <c r="AA26" s="39">
@@ -3137,31 +3350,43 @@
         <f t="shared" si="8"/>
         <v>1.5001876313150735</v>
       </c>
-      <c r="AD26" s="38">
+      <c r="AD26" s="27">
+        <f t="shared" si="20"/>
+        <v>2.9766666666666666</v>
+      </c>
+      <c r="AE26" s="27">
+        <f t="shared" si="21"/>
+        <v>41.673333333333332</v>
+      </c>
+      <c r="AF26" s="27">
+        <f t="shared" si="22"/>
+        <v>267.89999999999998</v>
+      </c>
+      <c r="AG26" s="38">
         <f t="shared" si="9"/>
         <v>749.23931623931628</v>
       </c>
-      <c r="AE26" s="38">
+      <c r="AH26" s="38">
         <f t="shared" si="10"/>
         <v>339.11411901608056</v>
       </c>
-      <c r="AF26" s="38">
+      <c r="AI26" s="38">
         <f t="shared" si="11"/>
         <v>113.07692307692308</v>
       </c>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38">
-        <f t="shared" si="24"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38">
+        <f t="shared" si="27"/>
         <v>10.11</v>
       </c>
-      <c r="AK26" s="40">
+      <c r="AN26" s="40">
         <f t="shared" si="12"/>
         <v>-38.135897435897441</v>
       </c>
     </row>
-    <row r="27" spans="10:37" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:40" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K27" s="37">
         <v>120</v>
       </c>
@@ -3177,7 +3402,7 @@
         <v>360.42939763674696</v>
       </c>
       <c r="O27" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>119.45000000000002</v>
       </c>
       <c r="P27" s="33">
@@ -3185,7 +3410,7 @@
         <v>2.761852840649226E-6</v>
       </c>
       <c r="Q27" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>46.208897132916277</v>
       </c>
       <c r="R27" s="38">
@@ -3201,11 +3426,11 @@
         <v>308.05931421944183</v>
       </c>
       <c r="U27" s="38">
-        <f t="shared" si="15"/>
+        <f>1000*(K27-$L$3-$L$2)/$L$11</f>
         <v>78.706666666666663</v>
       </c>
       <c r="V27" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>49.436654300625591</v>
       </c>
       <c r="W27" s="33">
@@ -3221,7 +3446,7 @@
         <v>15.232502414296535</v>
       </c>
       <c r="Z27" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>49.446654300625596</v>
       </c>
       <c r="AA27" s="38">
@@ -3236,31 +3461,43 @@
         <f t="shared" si="8"/>
         <v>0.19225729312033657</v>
       </c>
-      <c r="AD27" s="41">
+      <c r="AD27" s="27">
+        <f t="shared" si="20"/>
+        <v>3.9766666666666666</v>
+      </c>
+      <c r="AE27" s="27">
+        <f t="shared" si="21"/>
+        <v>55.673333333333332</v>
+      </c>
+      <c r="AF27" s="27">
+        <f t="shared" si="22"/>
+        <v>477.2</v>
+      </c>
+      <c r="AG27" s="41">
         <f t="shared" si="9"/>
         <v>1000.5213675213676</v>
       </c>
-      <c r="AE27" s="41">
+      <c r="AH27" s="41">
         <f t="shared" si="10"/>
         <v>452.84719190257948</v>
       </c>
-      <c r="AF27" s="41">
+      <c r="AI27" s="41">
         <f t="shared" si="11"/>
         <v>150.76923076923077</v>
       </c>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41">
-        <f t="shared" si="24"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41">
+        <f t="shared" si="27"/>
         <v>10.11</v>
       </c>
-      <c r="AK27" s="42">
+      <c r="AN27" s="42">
         <f t="shared" si="12"/>
         <v>-52.096011396011384</v>
       </c>
     </row>
-    <row r="28" spans="10:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J28" s="11"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
@@ -3281,10 +3518,13 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="14"/>
-    </row>
-    <row r="29" spans="10:37" x14ac:dyDescent="0.25">
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="27"/>
+    </row>
+    <row r="29" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J29" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K29" s="46">
         <v>8.5</v>
@@ -3293,7 +3533,7 @@
         <v>24.4</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N29" s="16">
         <v>25</v>
@@ -3329,8 +3569,11 @@
       <c r="AC29" s="18">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="10:37" x14ac:dyDescent="0.25">
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+    </row>
+    <row r="30" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J30" s="15"/>
       <c r="K30" s="38">
         <v>17</v>
@@ -3371,8 +3614,11 @@
       <c r="AC30" s="18">
         <v>4.6509999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="10:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+    </row>
+    <row r="31" spans="10:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J31" s="49"/>
       <c r="K31" s="41">
         <v>10</v>
@@ -3397,199 +3643,234 @@
       <c r="AC31" s="51">
         <v>4.9400000000000004</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K35" s="15"/>
+    <row r="32" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J34" s="16"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="O35" s="16"/>
       <c r="P35" s="16"/>
-      <c r="Q35" s="14"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>141</v>
-      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="16">
-        <v>10000</v>
-      </c>
+      <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
-      <c r="Q36" s="18"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>144</v>
-      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="16">
-        <v>120</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>145</v>
-      </c>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
-      <c r="Q38" s="18"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="K39" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="O39" s="21" t="s">
-        <v>149</v>
-      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
       <c r="P39" s="16"/>
-      <c r="Q39" s="18"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K40" s="15">
-        <v>1</v>
-      </c>
-      <c r="L40" s="68"/>
-      <c r="M40" s="16">
-        <f>K40/1000*$M$37</f>
-        <v>0.12</v>
-      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
-      <c r="Q40" s="18"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K41" s="15">
-        <v>50</v>
-      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="16">
-        <f>K41/1000*$M$37</f>
-        <v>6</v>
-      </c>
-      <c r="N41" s="16"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="18"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P41" s="21"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="52"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
-      <c r="Q42" s="18"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
-      <c r="Q43" s="18"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="K44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
-      <c r="Q44" s="18"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="48"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
-      <c r="Q45" s="18"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="51"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -3792,7 +4073,7 @@
   <mergeCells count="5">
     <mergeCell ref="V14:AA14"/>
     <mergeCell ref="N13:R13"/>
-    <mergeCell ref="AD14:AK14"/>
+    <mergeCell ref="AG14:AN14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="K14:T14"/>
   </mergeCells>
@@ -3810,7 +4091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3837,11 +4120,11 @@
       <c r="F1" s="2">
         <v>10.53</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="T1" s="2" t="s">
         <v>65</v>
       </c>
@@ -3863,9 +4146,9 @@
       <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
       <c r="T2" s="2" t="s">
         <v>66</v>
       </c>
@@ -3873,9 +4156,9 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="70"/>
       <c r="T3" s="2" t="s">
         <v>67</v>
       </c>
@@ -3903,16 +4186,16 @@
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
       <c r="T5" s="2" t="s">
         <v>68</v>
       </c>
@@ -3929,9 +4212,9 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
       <c r="T6" s="2" t="s">
         <v>69</v>
       </c>
@@ -3955,9 +4238,9 @@
       <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
       <c r="U7" s="2" t="s">
         <v>70</v>
       </c>
@@ -3977,9 +4260,9 @@
         <f>D7-D1</f>
         <v>0.96999999999999975</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
       <c r="U8" s="2" t="s">
         <v>72</v>
       </c>
@@ -3999,9 +4282,9 @@
         <f>D4-D7</f>
         <v>0.12512000000000034</v>
       </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
       <c r="U9" s="2" t="s">
         <v>74</v>
       </c>
@@ -4010,9 +4293,9 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="73"/>
       <c r="T10" s="2" t="s">
         <v>76</v>
       </c>
